--- a/A3_Project_Demo_Digital_Transformation/Results_Data/Step4_Results_Ouput/2_Line_of_Defense/output_ad_xyz_ManagerReview_20211230_Pal.Emp15@xyz.com.xlsx
+++ b/A3_Project_Demo_Digital_Transformation/Results_Data/Step4_Results_Ouput/2_Line_of_Defense/output_ad_xyz_ManagerReview_20211230_Pal.Emp15@xyz.com.xlsx
@@ -17,112 +17,130 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="640" uniqueCount="139">
   <si>
+    <t>AD_Privileged_Access</t>
+  </si>
+  <si>
+    <t>HR_Department_Name</t>
+  </si>
+  <si>
+    <t>HR_Manage_Email</t>
+  </si>
+  <si>
+    <t>AD_Lastname</t>
+  </si>
+  <si>
     <t>HR_Last_Name</t>
   </si>
   <si>
+    <t>zMatched</t>
+  </si>
+  <si>
+    <t>AD_Unique_AD_Departments</t>
+  </si>
+  <si>
+    <t>AD_WhenChanged</t>
+  </si>
+  <si>
+    <t>HR_Record_Type</t>
+  </si>
+  <si>
+    <t>AD_AccountExpiry</t>
+  </si>
+  <si>
+    <t>AD_EmailAddress</t>
+  </si>
+  <si>
+    <t>AD_Firstname</t>
+  </si>
+  <si>
+    <t>AD_Enabled</t>
+  </si>
+  <si>
+    <t>AD_DisplayName</t>
+  </si>
+  <si>
     <t>HR_Work_Email</t>
   </si>
   <si>
+    <t>AD_xyz_Grp_Tags</t>
+  </si>
+  <si>
+    <t>HR_Status</t>
+  </si>
+  <si>
+    <t>AD_Passwordset</t>
+  </si>
+  <si>
+    <t>HR_Termination_Date</t>
+  </si>
+  <si>
+    <t>AD_Description</t>
+  </si>
+  <si>
+    <t>HR_Employee_No</t>
+  </si>
+  <si>
+    <t>zDays_SinceLastLogonDate</t>
+  </si>
+  <si>
     <t>AD_CreateTimeStamp</t>
   </si>
   <si>
+    <t>AD_Company</t>
+  </si>
+  <si>
+    <t>AD_Department</t>
+  </si>
+  <si>
+    <t>AD_WhenCreated</t>
+  </si>
+  <si>
+    <t>zDays_SincePswdReset</t>
+  </si>
+  <si>
+    <t>zDays_SinceWhenCreated</t>
+  </si>
+  <si>
+    <t>zAD_User_Status</t>
+  </si>
+  <si>
+    <t>AD_SamAccountName</t>
+  </si>
+  <si>
+    <t>HR_First_Name</t>
+  </si>
+  <si>
+    <t>zDays_SinceWhenChanged</t>
+  </si>
+  <si>
+    <t>AD_LastLogonDate</t>
+  </si>
+  <si>
+    <t>HR_Division</t>
+  </si>
+  <si>
     <t>zTerminated_User_ActiveAD</t>
   </si>
   <si>
-    <t>zDays_SinceWhenCreated</t>
-  </si>
-  <si>
-    <t>HR_Record_Type</t>
-  </si>
-  <si>
-    <t>AD_Privileged_Access</t>
-  </si>
-  <si>
-    <t>AD_AccountExpiry</t>
-  </si>
-  <si>
-    <t>AD_WhenCreated</t>
-  </si>
-  <si>
-    <t>AD_WhenChanged</t>
-  </si>
-  <si>
-    <t>AD_xyz_Grp_Tags</t>
-  </si>
-  <si>
-    <t>zAD_User_Status</t>
-  </si>
-  <si>
-    <t>AD_Passwordset</t>
-  </si>
-  <si>
-    <t>AD_Company</t>
-  </si>
-  <si>
-    <t>AD_SamAccountName</t>
-  </si>
-  <si>
-    <t>AD_Unique_AD_Departments</t>
-  </si>
-  <si>
-    <t>AD_Department</t>
-  </si>
-  <si>
-    <t>HR_Division</t>
-  </si>
-  <si>
-    <t>HR_First_Name</t>
-  </si>
-  <si>
-    <t>AD_Firstname</t>
-  </si>
-  <si>
-    <t>HR_Department_Name</t>
-  </si>
-  <si>
-    <t>HR_Employee_No</t>
-  </si>
-  <si>
-    <t>HR_Termination_Date</t>
-  </si>
-  <si>
-    <t>zDays_SinceWhenChanged</t>
-  </si>
-  <si>
     <t>AD_xyz_Dept_Tags</t>
   </si>
   <si>
-    <t>zMatched</t>
-  </si>
-  <si>
-    <t>AD_Lastname</t>
-  </si>
-  <si>
-    <t>zDays_SincePswdReset</t>
-  </si>
-  <si>
-    <t>AD_Enabled</t>
-  </si>
-  <si>
-    <t>AD_EmailAddress</t>
-  </si>
-  <si>
-    <t>AD_Description</t>
-  </si>
-  <si>
-    <t>zDays_SinceLastLogonDate</t>
-  </si>
-  <si>
-    <t>AD_LastLogonDate</t>
-  </si>
-  <si>
-    <t>HR_Manage_Email</t>
-  </si>
-  <si>
-    <t>HR_Status</t>
-  </si>
-  <si>
-    <t>AD_DisplayName</t>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>MuleSoft</t>
+  </si>
+  <si>
+    <t>AWS</t>
+  </si>
+  <si>
+    <t>AZURE</t>
+  </si>
+  <si>
+    <t>CRM product</t>
+  </si>
+  <si>
+    <t>Pal.Emp15@xyz.com</t>
   </si>
   <si>
     <t>Emp7</t>
@@ -161,6 +179,18 @@
     <t>Emp41</t>
   </si>
   <si>
+    <t>HR_Match</t>
+  </si>
+  <si>
+    <t>XY-Dept2</t>
+  </si>
+  <si>
+    <t>XYZ</t>
+  </si>
+  <si>
+    <t>XYZ Employee</t>
+  </si>
+  <si>
     <t>noa.emp7@xyz.com</t>
   </si>
   <si>
@@ -197,211 +227,181 @@
     <t>tea.emp41@xyz.com</t>
   </si>
   <si>
+    <t>Noa</t>
+  </si>
+  <si>
+    <t>Kar</t>
+  </si>
+  <si>
+    <t>Ritu</t>
+  </si>
+  <si>
+    <t>Rita</t>
+  </si>
+  <si>
+    <t>Ally</t>
+  </si>
+  <si>
+    <t>Ray</t>
+  </si>
+  <si>
+    <t>Abby</t>
+  </si>
+  <si>
+    <t>Jenny</t>
+  </si>
+  <si>
+    <t>Cassy</t>
+  </si>
+  <si>
+    <t>Sugar</t>
+  </si>
+  <si>
+    <t>Coffee</t>
+  </si>
+  <si>
+    <t>Tea</t>
+  </si>
+  <si>
+    <t>True</t>
+  </si>
+  <si>
+    <t>False</t>
+  </si>
+  <si>
+    <t>Noa Emp7</t>
+  </si>
+  <si>
+    <t>Kar Emp16</t>
+  </si>
+  <si>
+    <t>Ritu Emp17</t>
+  </si>
+  <si>
+    <t>Rita Emp18</t>
+  </si>
+  <si>
+    <t>Ally Emp19</t>
+  </si>
+  <si>
+    <t>Ray Emp20</t>
+  </si>
+  <si>
+    <t>Abby Emp36</t>
+  </si>
+  <si>
+    <t>Jenny Emp37</t>
+  </si>
+  <si>
+    <t>Cassy Emp38</t>
+  </si>
+  <si>
+    <t>Sugar Emp39</t>
+  </si>
+  <si>
+    <t>Coffee Emp40</t>
+  </si>
+  <si>
+    <t>Tea Emp41</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>Active</t>
+  </si>
+  <si>
+    <t>Leave</t>
+  </si>
+  <si>
+    <t>Departed</t>
+  </si>
+  <si>
+    <t>Request#117</t>
+  </si>
+  <si>
+    <t>Request#108</t>
+  </si>
+  <si>
+    <t>Request#107</t>
+  </si>
+  <si>
+    <t>Request#106</t>
+  </si>
+  <si>
+    <t>Request#105</t>
+  </si>
+  <si>
+    <t>Request#104</t>
+  </si>
+  <si>
+    <t>Request#88</t>
+  </si>
+  <si>
+    <t>Request#87</t>
+  </si>
+  <si>
+    <t>Request#86</t>
+  </si>
+  <si>
+    <t>Request#85</t>
+  </si>
+  <si>
+    <t>Request#84</t>
+  </si>
+  <si>
+    <t>Request#83</t>
+  </si>
+  <si>
+    <t>Inactive</t>
+  </si>
+  <si>
+    <t>NOAEMP7x</t>
+  </si>
+  <si>
+    <t>KAREMP16x</t>
+  </si>
+  <si>
+    <t>RITUEMP17x</t>
+  </si>
+  <si>
+    <t>RITAEMP18x</t>
+  </si>
+  <si>
+    <t>ALLYEMP19x</t>
+  </si>
+  <si>
+    <t>RAYEMP20x</t>
+  </si>
+  <si>
+    <t>ABBYEMP36x</t>
+  </si>
+  <si>
+    <t>JENNYEMP37x</t>
+  </si>
+  <si>
+    <t>CASSYEMP38x</t>
+  </si>
+  <si>
+    <t>SUGAREMP39x</t>
+  </si>
+  <si>
+    <t>COFFEEEMP40x</t>
+  </si>
+  <si>
+    <t>TEAEMP41x</t>
+  </si>
+  <si>
+    <t>Integrations</t>
+  </si>
+  <si>
+    <t>Consulting</t>
+  </si>
+  <si>
+    <t>Strategy</t>
+  </si>
+  <si>
     <t>AuditCheck</t>
-  </si>
-  <si>
-    <t>XYZ Employee</t>
-  </si>
-  <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t>X</t>
-  </si>
-  <si>
-    <t>Active</t>
-  </si>
-  <si>
-    <t>Inactive</t>
-  </si>
-  <si>
-    <t>NOAEMP7x</t>
-  </si>
-  <si>
-    <t>KAREMP16x</t>
-  </si>
-  <si>
-    <t>RITUEMP17x</t>
-  </si>
-  <si>
-    <t>RITAEMP18x</t>
-  </si>
-  <si>
-    <t>ALLYEMP19x</t>
-  </si>
-  <si>
-    <t>RAYEMP20x</t>
-  </si>
-  <si>
-    <t>ABBYEMP36x</t>
-  </si>
-  <si>
-    <t>JENNYEMP37x</t>
-  </si>
-  <si>
-    <t>CASSYEMP38x</t>
-  </si>
-  <si>
-    <t>SUGAREMP39x</t>
-  </si>
-  <si>
-    <t>COFFEEEMP40x</t>
-  </si>
-  <si>
-    <t>TEAEMP41x</t>
-  </si>
-  <si>
-    <t>XY-Dept2</t>
-  </si>
-  <si>
-    <t>XYZ</t>
-  </si>
-  <si>
-    <t>Integrations</t>
-  </si>
-  <si>
-    <t>Consulting</t>
-  </si>
-  <si>
-    <t>Strategy</t>
-  </si>
-  <si>
-    <t>Noa</t>
-  </si>
-  <si>
-    <t>Kar</t>
-  </si>
-  <si>
-    <t>Ritu</t>
-  </si>
-  <si>
-    <t>Rita</t>
-  </si>
-  <si>
-    <t>Ally</t>
-  </si>
-  <si>
-    <t>Ray</t>
-  </si>
-  <si>
-    <t>Abby</t>
-  </si>
-  <si>
-    <t>Jenny</t>
-  </si>
-  <si>
-    <t>Cassy</t>
-  </si>
-  <si>
-    <t>Sugar</t>
-  </si>
-  <si>
-    <t>Coffee</t>
-  </si>
-  <si>
-    <t>Tea</t>
-  </si>
-  <si>
-    <t>MuleSoft</t>
-  </si>
-  <si>
-    <t>AWS</t>
-  </si>
-  <si>
-    <t>AZURE</t>
-  </si>
-  <si>
-    <t>CRM product</t>
-  </si>
-  <si>
-    <t>HR_Match</t>
-  </si>
-  <si>
-    <t>True</t>
-  </si>
-  <si>
-    <t>False</t>
-  </si>
-  <si>
-    <t>Request#117</t>
-  </si>
-  <si>
-    <t>Request#108</t>
-  </si>
-  <si>
-    <t>Request#107</t>
-  </si>
-  <si>
-    <t>Request#106</t>
-  </si>
-  <si>
-    <t>Request#105</t>
-  </si>
-  <si>
-    <t>Request#104</t>
-  </si>
-  <si>
-    <t>Request#88</t>
-  </si>
-  <si>
-    <t>Request#87</t>
-  </si>
-  <si>
-    <t>Request#86</t>
-  </si>
-  <si>
-    <t>Request#85</t>
-  </si>
-  <si>
-    <t>Request#84</t>
-  </si>
-  <si>
-    <t>Request#83</t>
-  </si>
-  <si>
-    <t>Pal.Emp15@xyz.com</t>
-  </si>
-  <si>
-    <t>Leave</t>
-  </si>
-  <si>
-    <t>Departed</t>
-  </si>
-  <si>
-    <t>Noa Emp7</t>
-  </si>
-  <si>
-    <t>Kar Emp16</t>
-  </si>
-  <si>
-    <t>Ritu Emp17</t>
-  </si>
-  <si>
-    <t>Rita Emp18</t>
-  </si>
-  <si>
-    <t>Ally Emp19</t>
-  </si>
-  <si>
-    <t>Ray Emp20</t>
-  </si>
-  <si>
-    <t>Abby Emp36</t>
-  </si>
-  <si>
-    <t>Jenny Emp37</t>
-  </si>
-  <si>
-    <t>Cassy Emp38</t>
-  </si>
-  <si>
-    <t>Sugar Emp39</t>
-  </si>
-  <si>
-    <t>Coffee Emp40</t>
-  </si>
-  <si>
-    <t>Tea Emp41</t>
   </si>
   <si>
     <t>AD_Group</t>
@@ -913,80 +913,86 @@
       <c r="A2" s="1">
         <v>31</v>
       </c>
-      <c r="B2" t="s">
-        <v>36</v>
-      </c>
       <c r="C2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D2" s="2">
+        <v>37</v>
+      </c>
+      <c r="D2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I2" s="2">
+        <v>44459.5591087963</v>
+      </c>
+      <c r="J2" t="s">
+        <v>57</v>
+      </c>
+      <c r="L2" t="s">
+        <v>58</v>
+      </c>
+      <c r="M2" t="s">
+        <v>70</v>
+      </c>
+      <c r="N2" t="s">
+        <v>82</v>
+      </c>
+      <c r="O2" t="s">
+        <v>84</v>
+      </c>
+      <c r="P2" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>96</v>
+      </c>
+      <c r="R2" t="s">
+        <v>97</v>
+      </c>
+      <c r="S2" s="2">
+        <v>44456.52199074074</v>
+      </c>
+      <c r="U2" t="s">
+        <v>100</v>
+      </c>
+      <c r="V2">
+        <v>1007</v>
+      </c>
+      <c r="W2">
+        <v>106</v>
+      </c>
+      <c r="X2" s="2">
         <v>44457.52199074074</v>
       </c>
-      <c r="F2">
+      <c r="Z2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA2" s="2">
+        <v>44457.52199074074</v>
+      </c>
+      <c r="AB2">
+        <v>109</v>
+      </c>
+      <c r="AC2">
         <v>108</v>
       </c>
-      <c r="G2" t="s">
-        <v>61</v>
-      </c>
-      <c r="J2" s="2">
-        <v>44457.52199074074</v>
-      </c>
-      <c r="K2" s="2">
-        <v>44459.5591087963</v>
-      </c>
-      <c r="L2" t="s">
-        <v>63</v>
-      </c>
-      <c r="M2" t="s">
-        <v>64</v>
-      </c>
-      <c r="N2" s="2">
-        <v>44456.52199074074</v>
-      </c>
-      <c r="P2" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>78</v>
-      </c>
-      <c r="R2" t="s">
-        <v>78</v>
-      </c>
-      <c r="S2" t="s">
-        <v>80</v>
-      </c>
-      <c r="T2" t="s">
-        <v>83</v>
-      </c>
-      <c r="U2" t="s">
-        <v>83</v>
-      </c>
-      <c r="V2" t="s">
-        <v>95</v>
-      </c>
-      <c r="W2">
-        <v>1007</v>
-      </c>
-      <c r="Y2">
-        <v>106</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>99</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AC2">
-        <v>109</v>
-      </c>
       <c r="AD2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="AE2" t="s">
-        <v>48</v>
+        <v>113</v>
       </c>
       <c r="AF2" t="s">
-        <v>102</v>
+        <v>70</v>
       </c>
       <c r="AG2">
         <v>106</v>
@@ -995,93 +1001,93 @@
         <v>44459.54693287037</v>
       </c>
       <c r="AI2" t="s">
-        <v>114</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>64</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
     </row>
     <row r="3" spans="1:37">
       <c r="A3" s="1">
         <v>69</v>
       </c>
-      <c r="B3" t="s">
-        <v>37</v>
-      </c>
       <c r="C3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D3" s="2">
+        <v>38</v>
+      </c>
+      <c r="D3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H3" t="s">
+        <v>55</v>
+      </c>
+      <c r="I3" s="2">
+        <v>44459.5591087963</v>
+      </c>
+      <c r="J3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" t="s">
+        <v>59</v>
+      </c>
+      <c r="M3" t="s">
+        <v>71</v>
+      </c>
+      <c r="N3" t="s">
+        <v>83</v>
+      </c>
+      <c r="O3" t="s">
+        <v>85</v>
+      </c>
+      <c r="P3" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>96</v>
+      </c>
+      <c r="R3" t="s">
+        <v>97</v>
+      </c>
+      <c r="S3" s="2">
+        <v>44456.52199074074</v>
+      </c>
+      <c r="U3" t="s">
+        <v>101</v>
+      </c>
+      <c r="V3">
+        <v>1016</v>
+      </c>
+      <c r="W3">
+        <v>106</v>
+      </c>
+      <c r="X3" s="2">
         <v>44457.52199074074</v>
       </c>
-      <c r="F3">
+      <c r="Z3" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA3" s="2">
+        <v>44457.52199074074</v>
+      </c>
+      <c r="AB3">
+        <v>109</v>
+      </c>
+      <c r="AC3">
         <v>108</v>
       </c>
-      <c r="G3" t="s">
-        <v>61</v>
-      </c>
-      <c r="J3" s="2">
-        <v>44457.52199074074</v>
-      </c>
-      <c r="K3" s="2">
-        <v>44459.5591087963</v>
-      </c>
-      <c r="L3" t="s">
-        <v>63</v>
-      </c>
-      <c r="M3" t="s">
-        <v>65</v>
-      </c>
-      <c r="N3" s="2">
-        <v>44456.52199074074</v>
-      </c>
-      <c r="P3" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>78</v>
-      </c>
-      <c r="R3" t="s">
-        <v>78</v>
-      </c>
-      <c r="S3" t="s">
-        <v>81</v>
-      </c>
-      <c r="T3" t="s">
-        <v>84</v>
-      </c>
-      <c r="U3" t="s">
-        <v>84</v>
-      </c>
-      <c r="V3" t="s">
-        <v>96</v>
-      </c>
-      <c r="W3">
-        <v>1016</v>
-      </c>
-      <c r="Y3">
-        <v>106</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>99</v>
-      </c>
-      <c r="AB3" t="s">
-        <v>37</v>
-      </c>
-      <c r="AC3">
-        <v>109</v>
-      </c>
       <c r="AD3" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="AE3" t="s">
-        <v>49</v>
+        <v>114</v>
       </c>
       <c r="AF3" t="s">
-        <v>103</v>
+        <v>71</v>
       </c>
       <c r="AG3">
         <v>106</v>
@@ -1090,93 +1096,93 @@
         <v>44459.54693287037</v>
       </c>
       <c r="AI3" t="s">
-        <v>114</v>
-      </c>
-      <c r="AJ3" t="s">
-        <v>64</v>
-      </c>
-      <c r="AK3" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
     </row>
     <row r="4" spans="1:37">
       <c r="A4" s="1">
         <v>70</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>38</v>
       </c>
-      <c r="C4" t="s">
-        <v>50</v>
-      </c>
-      <c r="D4" s="2">
+      <c r="D4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>44</v>
+      </c>
+      <c r="G4" t="s">
+        <v>54</v>
+      </c>
+      <c r="H4" t="s">
+        <v>55</v>
+      </c>
+      <c r="I4" s="2">
+        <v>44459.5591087963</v>
+      </c>
+      <c r="J4" t="s">
+        <v>57</v>
+      </c>
+      <c r="L4" t="s">
+        <v>60</v>
+      </c>
+      <c r="M4" t="s">
+        <v>72</v>
+      </c>
+      <c r="N4" t="s">
+        <v>82</v>
+      </c>
+      <c r="O4" t="s">
+        <v>86</v>
+      </c>
+      <c r="P4" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>96</v>
+      </c>
+      <c r="R4" t="s">
+        <v>97</v>
+      </c>
+      <c r="S4" s="2">
+        <v>44456.52199074074</v>
+      </c>
+      <c r="U4" t="s">
+        <v>102</v>
+      </c>
+      <c r="V4">
+        <v>1017</v>
+      </c>
+      <c r="W4">
+        <v>106</v>
+      </c>
+      <c r="X4" s="2">
         <v>44457.52199074074</v>
       </c>
-      <c r="F4">
+      <c r="Z4" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA4" s="2">
+        <v>44457.52199074074</v>
+      </c>
+      <c r="AB4">
+        <v>109</v>
+      </c>
+      <c r="AC4">
         <v>108</v>
       </c>
-      <c r="G4" t="s">
-        <v>61</v>
-      </c>
-      <c r="J4" s="2">
-        <v>44457.52199074074</v>
-      </c>
-      <c r="K4" s="2">
-        <v>44459.5591087963</v>
-      </c>
-      <c r="L4" t="s">
-        <v>63</v>
-      </c>
-      <c r="M4" t="s">
-        <v>64</v>
-      </c>
-      <c r="N4" s="2">
-        <v>44456.52199074074</v>
-      </c>
-      <c r="P4" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>78</v>
-      </c>
-      <c r="R4" t="s">
-        <v>78</v>
-      </c>
-      <c r="S4" t="s">
-        <v>81</v>
-      </c>
-      <c r="T4" t="s">
-        <v>85</v>
-      </c>
-      <c r="U4" t="s">
-        <v>85</v>
-      </c>
-      <c r="V4" t="s">
-        <v>96</v>
-      </c>
-      <c r="W4">
-        <v>1017</v>
-      </c>
-      <c r="Y4">
-        <v>106</v>
-      </c>
-      <c r="AA4" t="s">
-        <v>99</v>
-      </c>
-      <c r="AB4" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC4">
-        <v>109</v>
-      </c>
       <c r="AD4" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="AE4" t="s">
-        <v>50</v>
+        <v>115</v>
       </c>
       <c r="AF4" t="s">
-        <v>104</v>
+        <v>72</v>
       </c>
       <c r="AG4">
         <v>106</v>
@@ -1185,13 +1191,7 @@
         <v>44459.54693287037</v>
       </c>
       <c r="AI4" t="s">
-        <v>114</v>
-      </c>
-      <c r="AJ4" t="s">
-        <v>64</v>
-      </c>
-      <c r="AK4" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
     </row>
     <row r="5" spans="1:37">
@@ -1199,82 +1199,88 @@
         <v>79</v>
       </c>
       <c r="B5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D5" s="2">
+        <v>38</v>
+      </c>
+      <c r="D5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" t="s">
+        <v>45</v>
+      </c>
+      <c r="F5" t="s">
+        <v>45</v>
+      </c>
+      <c r="G5" t="s">
+        <v>54</v>
+      </c>
+      <c r="H5" t="s">
+        <v>55</v>
+      </c>
+      <c r="I5" s="2">
+        <v>44459.5591087963</v>
+      </c>
+      <c r="J5" t="s">
+        <v>57</v>
+      </c>
+      <c r="L5" t="s">
+        <v>61</v>
+      </c>
+      <c r="M5" t="s">
+        <v>73</v>
+      </c>
+      <c r="N5" t="s">
+        <v>82</v>
+      </c>
+      <c r="O5" t="s">
+        <v>87</v>
+      </c>
+      <c r="P5" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>96</v>
+      </c>
+      <c r="R5" t="s">
+        <v>97</v>
+      </c>
+      <c r="S5" s="2">
+        <v>44456.52199074074</v>
+      </c>
+      <c r="U5" t="s">
+        <v>103</v>
+      </c>
+      <c r="V5">
+        <v>1018</v>
+      </c>
+      <c r="W5">
+        <v>106</v>
+      </c>
+      <c r="X5" s="2">
         <v>44457.52199074074</v>
       </c>
-      <c r="F5">
+      <c r="Z5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA5" s="2">
+        <v>44457.52199074074</v>
+      </c>
+      <c r="AB5">
+        <v>109</v>
+      </c>
+      <c r="AC5">
         <v>108</v>
       </c>
-      <c r="G5" t="s">
-        <v>61</v>
-      </c>
-      <c r="H5" t="s">
-        <v>62</v>
-      </c>
-      <c r="J5" s="2">
-        <v>44457.52199074074</v>
-      </c>
-      <c r="K5" s="2">
-        <v>44459.5591087963</v>
-      </c>
-      <c r="L5" t="s">
-        <v>63</v>
-      </c>
-      <c r="M5" t="s">
-        <v>64</v>
-      </c>
-      <c r="N5" s="2">
-        <v>44456.52199074074</v>
-      </c>
-      <c r="P5" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>78</v>
-      </c>
-      <c r="R5" t="s">
-        <v>78</v>
-      </c>
-      <c r="S5" t="s">
-        <v>81</v>
-      </c>
-      <c r="T5" t="s">
-        <v>86</v>
-      </c>
-      <c r="U5" t="s">
-        <v>86</v>
-      </c>
-      <c r="V5" t="s">
-        <v>96</v>
-      </c>
-      <c r="W5">
-        <v>1018</v>
-      </c>
-      <c r="Y5">
-        <v>106</v>
-      </c>
-      <c r="AA5" t="s">
-        <v>99</v>
-      </c>
-      <c r="AB5" t="s">
-        <v>39</v>
-      </c>
-      <c r="AC5">
-        <v>109</v>
-      </c>
       <c r="AD5" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="AE5" t="s">
-        <v>51</v>
+        <v>116</v>
       </c>
       <c r="AF5" t="s">
-        <v>105</v>
+        <v>73</v>
       </c>
       <c r="AG5">
         <v>106</v>
@@ -1283,13 +1289,7 @@
         <v>44459.54693287037</v>
       </c>
       <c r="AI5" t="s">
-        <v>114</v>
-      </c>
-      <c r="AJ5" t="s">
-        <v>64</v>
-      </c>
-      <c r="AK5" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
     </row>
     <row r="6" spans="1:37">
@@ -1297,82 +1297,88 @@
         <v>88</v>
       </c>
       <c r="B6" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C6" t="s">
-        <v>52</v>
-      </c>
-      <c r="D6" s="2">
+        <v>39</v>
+      </c>
+      <c r="D6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" t="s">
+        <v>46</v>
+      </c>
+      <c r="F6" t="s">
+        <v>46</v>
+      </c>
+      <c r="G6" t="s">
+        <v>54</v>
+      </c>
+      <c r="H6" t="s">
+        <v>55</v>
+      </c>
+      <c r="I6" s="2">
+        <v>44459.5591087963</v>
+      </c>
+      <c r="J6" t="s">
+        <v>57</v>
+      </c>
+      <c r="L6" t="s">
+        <v>62</v>
+      </c>
+      <c r="M6" t="s">
+        <v>74</v>
+      </c>
+      <c r="N6" t="s">
+        <v>82</v>
+      </c>
+      <c r="O6" t="s">
+        <v>88</v>
+      </c>
+      <c r="P6" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>96</v>
+      </c>
+      <c r="R6" t="s">
+        <v>98</v>
+      </c>
+      <c r="S6" s="2">
+        <v>44456.52199074074</v>
+      </c>
+      <c r="U6" t="s">
+        <v>104</v>
+      </c>
+      <c r="V6">
+        <v>1019</v>
+      </c>
+      <c r="W6">
+        <v>106</v>
+      </c>
+      <c r="X6" s="2">
         <v>44457.52199074074</v>
       </c>
-      <c r="F6">
+      <c r="Z6" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA6" s="2">
+        <v>44457.52199074074</v>
+      </c>
+      <c r="AB6">
+        <v>109</v>
+      </c>
+      <c r="AC6">
         <v>108</v>
       </c>
-      <c r="G6" t="s">
-        <v>61</v>
-      </c>
-      <c r="H6" t="s">
-        <v>62</v>
-      </c>
-      <c r="J6" s="2">
-        <v>44457.52199074074</v>
-      </c>
-      <c r="K6" s="2">
-        <v>44459.5591087963</v>
-      </c>
-      <c r="L6" t="s">
-        <v>63</v>
-      </c>
-      <c r="M6" t="s">
-        <v>64</v>
-      </c>
-      <c r="N6" s="2">
-        <v>44456.52199074074</v>
-      </c>
-      <c r="P6" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>78</v>
-      </c>
-      <c r="R6" t="s">
-        <v>78</v>
-      </c>
-      <c r="S6" t="s">
-        <v>82</v>
-      </c>
-      <c r="T6" t="s">
-        <v>87</v>
-      </c>
-      <c r="U6" t="s">
-        <v>87</v>
-      </c>
-      <c r="V6" t="s">
+      <c r="AD6" t="s">
         <v>97</v>
       </c>
-      <c r="W6">
-        <v>1019</v>
-      </c>
-      <c r="Y6">
-        <v>106</v>
-      </c>
-      <c r="AA6" t="s">
-        <v>99</v>
-      </c>
-      <c r="AB6" t="s">
-        <v>40</v>
-      </c>
-      <c r="AC6">
-        <v>109</v>
-      </c>
-      <c r="AD6" t="s">
-        <v>100</v>
-      </c>
       <c r="AE6" t="s">
-        <v>52</v>
+        <v>117</v>
       </c>
       <c r="AF6" t="s">
-        <v>106</v>
+        <v>74</v>
       </c>
       <c r="AG6">
         <v>106</v>
@@ -1381,13 +1387,7 @@
         <v>44459.54693287037</v>
       </c>
       <c r="AI6" t="s">
-        <v>114</v>
-      </c>
-      <c r="AJ6" t="s">
-        <v>115</v>
-      </c>
-      <c r="AK6" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
     </row>
     <row r="7" spans="1:37">
@@ -1395,82 +1395,88 @@
         <v>97</v>
       </c>
       <c r="B7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" t="s">
         <v>41</v>
       </c>
-      <c r="C7" t="s">
-        <v>53</v>
-      </c>
-      <c r="D7" s="2">
-        <v>44457.52199074074</v>
-      </c>
-      <c r="F7">
-        <v>108</v>
+      <c r="E7" t="s">
+        <v>47</v>
+      </c>
+      <c r="F7" t="s">
+        <v>47</v>
       </c>
       <c r="G7" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="H7" t="s">
-        <v>62</v>
-      </c>
-      <c r="J7" s="2">
-        <v>44457.52199074074</v>
-      </c>
-      <c r="K7" s="2">
+        <v>55</v>
+      </c>
+      <c r="I7" s="2">
         <v>44459.5591087963</v>
+      </c>
+      <c r="J7" t="s">
+        <v>57</v>
       </c>
       <c r="L7" t="s">
         <v>63</v>
       </c>
       <c r="M7" t="s">
-        <v>64</v>
-      </c>
-      <c r="N7" s="2">
+        <v>75</v>
+      </c>
+      <c r="N7" t="s">
+        <v>82</v>
+      </c>
+      <c r="O7" t="s">
+        <v>89</v>
+      </c>
+      <c r="P7" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>96</v>
+      </c>
+      <c r="R7" t="s">
+        <v>97</v>
+      </c>
+      <c r="S7" s="2">
         <v>44456.52199074074</v>
       </c>
-      <c r="P7" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>78</v>
-      </c>
-      <c r="R7" t="s">
-        <v>78</v>
-      </c>
-      <c r="S7" t="s">
-        <v>82</v>
-      </c>
-      <c r="T7" t="s">
-        <v>88</v>
-      </c>
       <c r="U7" t="s">
-        <v>88</v>
-      </c>
-      <c r="V7" t="s">
+        <v>105</v>
+      </c>
+      <c r="V7">
+        <v>1020</v>
+      </c>
+      <c r="W7">
+        <v>106</v>
+      </c>
+      <c r="X7" s="2">
+        <v>44457.52199074074</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA7" s="2">
+        <v>44457.52199074074</v>
+      </c>
+      <c r="AB7">
+        <v>109</v>
+      </c>
+      <c r="AC7">
+        <v>108</v>
+      </c>
+      <c r="AD7" t="s">
         <v>97</v>
       </c>
-      <c r="W7">
-        <v>1020</v>
-      </c>
-      <c r="Y7">
-        <v>106</v>
-      </c>
-      <c r="AA7" t="s">
-        <v>99</v>
-      </c>
-      <c r="AB7" t="s">
-        <v>41</v>
-      </c>
-      <c r="AC7">
-        <v>109</v>
-      </c>
-      <c r="AD7" t="s">
-        <v>100</v>
-      </c>
       <c r="AE7" t="s">
-        <v>53</v>
+        <v>118</v>
       </c>
       <c r="AF7" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="AG7">
         <v>106</v>
@@ -1479,102 +1485,96 @@
         <v>44459.54693287037</v>
       </c>
       <c r="AI7" t="s">
-        <v>114</v>
-      </c>
-      <c r="AJ7" t="s">
-        <v>64</v>
-      </c>
-      <c r="AK7" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="8" spans="1:37">
       <c r="A8" s="1">
         <v>214</v>
       </c>
-      <c r="B8" t="s">
-        <v>42</v>
-      </c>
       <c r="C8" t="s">
-        <v>54</v>
-      </c>
-      <c r="D8" s="2">
+        <v>40</v>
+      </c>
+      <c r="D8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E8" t="s">
+        <v>48</v>
+      </c>
+      <c r="F8" t="s">
+        <v>48</v>
+      </c>
+      <c r="G8" t="s">
+        <v>54</v>
+      </c>
+      <c r="H8" t="s">
+        <v>56</v>
+      </c>
+      <c r="I8" s="2">
+        <v>44459.5591087963</v>
+      </c>
+      <c r="J8" t="s">
+        <v>57</v>
+      </c>
+      <c r="L8" t="s">
+        <v>64</v>
+      </c>
+      <c r="M8" t="s">
+        <v>76</v>
+      </c>
+      <c r="N8" t="s">
+        <v>82</v>
+      </c>
+      <c r="O8" t="s">
+        <v>90</v>
+      </c>
+      <c r="P8" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>96</v>
+      </c>
+      <c r="R8" t="s">
+        <v>99</v>
+      </c>
+      <c r="S8" s="2">
+        <v>44456.52199074074</v>
+      </c>
+      <c r="T8" s="2">
+        <v>43479</v>
+      </c>
+      <c r="U8" t="s">
+        <v>106</v>
+      </c>
+      <c r="V8">
+        <v>1036</v>
+      </c>
+      <c r="W8">
+        <v>106</v>
+      </c>
+      <c r="X8" s="2">
         <v>44457.52199074074</v>
       </c>
-      <c r="E8" t="s">
-        <v>60</v>
-      </c>
-      <c r="F8">
+      <c r="Z8" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA8" s="2">
+        <v>44457.52199074074</v>
+      </c>
+      <c r="AB8">
+        <v>109</v>
+      </c>
+      <c r="AC8">
         <v>108</v>
       </c>
-      <c r="G8" t="s">
-        <v>61</v>
-      </c>
-      <c r="J8" s="2">
-        <v>44457.52199074074</v>
-      </c>
-      <c r="K8" s="2">
-        <v>44459.5591087963</v>
-      </c>
-      <c r="L8" t="s">
-        <v>63</v>
-      </c>
-      <c r="M8" t="s">
-        <v>64</v>
-      </c>
-      <c r="N8" s="2">
-        <v>44456.52199074074</v>
-      </c>
-      <c r="P8" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>79</v>
-      </c>
-      <c r="R8" t="s">
-        <v>79</v>
-      </c>
-      <c r="S8" t="s">
-        <v>80</v>
-      </c>
-      <c r="T8" t="s">
-        <v>89</v>
-      </c>
-      <c r="U8" t="s">
-        <v>89</v>
-      </c>
-      <c r="V8" t="s">
-        <v>98</v>
-      </c>
-      <c r="W8">
-        <v>1036</v>
-      </c>
-      <c r="X8" s="2">
-        <v>43479</v>
-      </c>
-      <c r="Y8">
-        <v>106</v>
-      </c>
-      <c r="Z8" t="s">
-        <v>63</v>
-      </c>
-      <c r="AA8" t="s">
-        <v>99</v>
-      </c>
-      <c r="AB8" t="s">
-        <v>42</v>
-      </c>
-      <c r="AC8">
-        <v>109</v>
-      </c>
       <c r="AD8" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="AE8" t="s">
-        <v>54</v>
+        <v>119</v>
       </c>
       <c r="AF8" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
       <c r="AG8">
         <v>106</v>
@@ -1583,102 +1583,102 @@
         <v>44459.54693287037</v>
       </c>
       <c r="AI8" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="AJ8" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="AK8" t="s">
-        <v>123</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9" spans="1:37">
       <c r="A9" s="1">
         <v>216</v>
       </c>
-      <c r="B9" t="s">
-        <v>43</v>
-      </c>
       <c r="C9" t="s">
-        <v>55</v>
-      </c>
-      <c r="D9" s="2">
+        <v>38</v>
+      </c>
+      <c r="D9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9" t="s">
+        <v>49</v>
+      </c>
+      <c r="F9" t="s">
+        <v>49</v>
+      </c>
+      <c r="G9" t="s">
+        <v>54</v>
+      </c>
+      <c r="H9" t="s">
+        <v>56</v>
+      </c>
+      <c r="I9" s="2">
+        <v>44459.5591087963</v>
+      </c>
+      <c r="J9" t="s">
+        <v>57</v>
+      </c>
+      <c r="L9" t="s">
+        <v>65</v>
+      </c>
+      <c r="M9" t="s">
+        <v>77</v>
+      </c>
+      <c r="N9" t="s">
+        <v>82</v>
+      </c>
+      <c r="O9" t="s">
+        <v>91</v>
+      </c>
+      <c r="P9" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>96</v>
+      </c>
+      <c r="R9" t="s">
+        <v>99</v>
+      </c>
+      <c r="S9" s="2">
+        <v>44456.52199074074</v>
+      </c>
+      <c r="T9" s="2">
+        <v>43479</v>
+      </c>
+      <c r="U9" t="s">
+        <v>107</v>
+      </c>
+      <c r="V9">
+        <v>1037</v>
+      </c>
+      <c r="W9">
+        <v>106</v>
+      </c>
+      <c r="X9" s="2">
         <v>44457.52199074074</v>
       </c>
-      <c r="E9" t="s">
-        <v>60</v>
-      </c>
-      <c r="F9">
+      <c r="Z9" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA9" s="2">
+        <v>44457.52199074074</v>
+      </c>
+      <c r="AB9">
+        <v>109</v>
+      </c>
+      <c r="AC9">
         <v>108</v>
       </c>
-      <c r="G9" t="s">
-        <v>61</v>
-      </c>
-      <c r="J9" s="2">
-        <v>44457.52199074074</v>
-      </c>
-      <c r="K9" s="2">
-        <v>44459.5591087963</v>
-      </c>
-      <c r="L9" t="s">
-        <v>63</v>
-      </c>
-      <c r="M9" t="s">
-        <v>64</v>
-      </c>
-      <c r="N9" s="2">
-        <v>44456.52199074074</v>
-      </c>
-      <c r="P9" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>79</v>
-      </c>
-      <c r="R9" t="s">
-        <v>79</v>
-      </c>
-      <c r="S9" t="s">
-        <v>81</v>
-      </c>
-      <c r="T9" t="s">
-        <v>90</v>
-      </c>
-      <c r="U9" t="s">
-        <v>90</v>
-      </c>
-      <c r="V9" t="s">
-        <v>96</v>
-      </c>
-      <c r="W9">
-        <v>1037</v>
-      </c>
-      <c r="X9" s="2">
-        <v>43479</v>
-      </c>
-      <c r="Y9">
-        <v>106</v>
-      </c>
-      <c r="Z9" t="s">
-        <v>63</v>
-      </c>
-      <c r="AA9" t="s">
-        <v>99</v>
-      </c>
-      <c r="AB9" t="s">
-        <v>43</v>
-      </c>
-      <c r="AC9">
-        <v>109</v>
-      </c>
       <c r="AD9" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="AE9" t="s">
-        <v>55</v>
+        <v>120</v>
       </c>
       <c r="AF9" t="s">
-        <v>109</v>
+        <v>77</v>
       </c>
       <c r="AG9">
         <v>106</v>
@@ -1687,102 +1687,102 @@
         <v>44459.54693287037</v>
       </c>
       <c r="AI9" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="AJ9" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="AK9" t="s">
-        <v>124</v>
+        <v>96</v>
       </c>
     </row>
     <row r="10" spans="1:37">
       <c r="A10" s="1">
         <v>218</v>
       </c>
-      <c r="B10" t="s">
-        <v>44</v>
-      </c>
       <c r="C10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10" t="s">
+        <v>50</v>
+      </c>
+      <c r="F10" t="s">
+        <v>50</v>
+      </c>
+      <c r="G10" t="s">
+        <v>54</v>
+      </c>
+      <c r="H10" t="s">
         <v>56</v>
       </c>
-      <c r="D10" s="2">
+      <c r="I10" s="2">
+        <v>44459.5591087963</v>
+      </c>
+      <c r="J10" t="s">
+        <v>57</v>
+      </c>
+      <c r="L10" t="s">
+        <v>66</v>
+      </c>
+      <c r="M10" t="s">
+        <v>78</v>
+      </c>
+      <c r="N10" t="s">
+        <v>82</v>
+      </c>
+      <c r="O10" t="s">
+        <v>92</v>
+      </c>
+      <c r="P10" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>96</v>
+      </c>
+      <c r="R10" t="s">
+        <v>99</v>
+      </c>
+      <c r="S10" s="2">
+        <v>44456.52199074074</v>
+      </c>
+      <c r="T10" s="2">
+        <v>43479</v>
+      </c>
+      <c r="U10" t="s">
+        <v>108</v>
+      </c>
+      <c r="V10">
+        <v>1038</v>
+      </c>
+      <c r="W10">
+        <v>106</v>
+      </c>
+      <c r="X10" s="2">
         <v>44457.52199074074</v>
       </c>
-      <c r="E10" t="s">
-        <v>60</v>
-      </c>
-      <c r="F10">
+      <c r="Z10" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA10" s="2">
+        <v>44457.52199074074</v>
+      </c>
+      <c r="AB10">
+        <v>109</v>
+      </c>
+      <c r="AC10">
         <v>108</v>
       </c>
-      <c r="G10" t="s">
-        <v>61</v>
-      </c>
-      <c r="J10" s="2">
-        <v>44457.52199074074</v>
-      </c>
-      <c r="K10" s="2">
-        <v>44459.5591087963</v>
-      </c>
-      <c r="L10" t="s">
-        <v>63</v>
-      </c>
-      <c r="M10" t="s">
-        <v>64</v>
-      </c>
-      <c r="N10" s="2">
-        <v>44456.52199074074</v>
-      </c>
-      <c r="P10" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>79</v>
-      </c>
-      <c r="R10" t="s">
-        <v>79</v>
-      </c>
-      <c r="S10" t="s">
-        <v>81</v>
-      </c>
-      <c r="T10" t="s">
-        <v>91</v>
-      </c>
-      <c r="U10" t="s">
-        <v>91</v>
-      </c>
-      <c r="V10" t="s">
+      <c r="AD10" t="s">
         <v>97</v>
       </c>
-      <c r="W10">
-        <v>1038</v>
-      </c>
-      <c r="X10" s="2">
-        <v>43479</v>
-      </c>
-      <c r="Y10">
-        <v>106</v>
-      </c>
-      <c r="Z10" t="s">
-        <v>63</v>
-      </c>
-      <c r="AA10" t="s">
-        <v>99</v>
-      </c>
-      <c r="AB10" t="s">
-        <v>44</v>
-      </c>
-      <c r="AC10">
-        <v>109</v>
-      </c>
-      <c r="AD10" t="s">
-        <v>100</v>
-      </c>
       <c r="AE10" t="s">
-        <v>56</v>
+        <v>121</v>
       </c>
       <c r="AF10" t="s">
-        <v>110</v>
+        <v>78</v>
       </c>
       <c r="AG10">
         <v>106</v>
@@ -1791,99 +1791,102 @@
         <v>44459.54693287037</v>
       </c>
       <c r="AI10" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="AJ10" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="AK10" t="s">
-        <v>125</v>
+        <v>96</v>
       </c>
     </row>
     <row r="11" spans="1:37">
       <c r="A11" s="1">
         <v>220</v>
       </c>
-      <c r="B11" t="s">
-        <v>45</v>
-      </c>
       <c r="C11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" t="s">
+        <v>51</v>
+      </c>
+      <c r="F11" t="s">
+        <v>51</v>
+      </c>
+      <c r="G11" t="s">
+        <v>54</v>
+      </c>
+      <c r="H11" t="s">
+        <v>56</v>
+      </c>
+      <c r="I11" s="2">
+        <v>44459.5591087963</v>
+      </c>
+      <c r="J11" t="s">
         <v>57</v>
       </c>
-      <c r="D11" s="2">
+      <c r="L11" t="s">
+        <v>67</v>
+      </c>
+      <c r="M11" t="s">
+        <v>79</v>
+      </c>
+      <c r="N11" t="s">
+        <v>83</v>
+      </c>
+      <c r="O11" t="s">
+        <v>93</v>
+      </c>
+      <c r="P11" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>96</v>
+      </c>
+      <c r="R11" t="s">
+        <v>99</v>
+      </c>
+      <c r="S11" s="2">
+        <v>44456.52199074074</v>
+      </c>
+      <c r="T11" s="2">
+        <v>43479</v>
+      </c>
+      <c r="U11" t="s">
+        <v>109</v>
+      </c>
+      <c r="V11">
+        <v>1039</v>
+      </c>
+      <c r="W11">
+        <v>106</v>
+      </c>
+      <c r="X11" s="2">
         <v>44457.52199074074</v>
       </c>
-      <c r="F11">
+      <c r="Z11" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA11" s="2">
+        <v>44457.52199074074</v>
+      </c>
+      <c r="AB11">
+        <v>109</v>
+      </c>
+      <c r="AC11">
         <v>108</v>
       </c>
-      <c r="G11" t="s">
-        <v>61</v>
-      </c>
-      <c r="J11" s="2">
-        <v>44457.52199074074</v>
-      </c>
-      <c r="K11" s="2">
-        <v>44459.5591087963</v>
-      </c>
-      <c r="L11" t="s">
-        <v>63</v>
-      </c>
-      <c r="M11" t="s">
-        <v>65</v>
-      </c>
-      <c r="N11" s="2">
-        <v>44456.52199074074</v>
-      </c>
-      <c r="P11" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q11" t="s">
+      <c r="AD11" t="s">
+        <v>112</v>
+      </c>
+      <c r="AE11" t="s">
+        <v>122</v>
+      </c>
+      <c r="AF11" t="s">
         <v>79</v>
-      </c>
-      <c r="R11" t="s">
-        <v>79</v>
-      </c>
-      <c r="S11" t="s">
-        <v>81</v>
-      </c>
-      <c r="T11" t="s">
-        <v>92</v>
-      </c>
-      <c r="U11" t="s">
-        <v>92</v>
-      </c>
-      <c r="V11" t="s">
-        <v>96</v>
-      </c>
-      <c r="W11">
-        <v>1039</v>
-      </c>
-      <c r="X11" s="2">
-        <v>43479</v>
-      </c>
-      <c r="Y11">
-        <v>106</v>
-      </c>
-      <c r="Z11" t="s">
-        <v>63</v>
-      </c>
-      <c r="AA11" t="s">
-        <v>99</v>
-      </c>
-      <c r="AB11" t="s">
-        <v>45</v>
-      </c>
-      <c r="AC11">
-        <v>109</v>
-      </c>
-      <c r="AD11" t="s">
-        <v>101</v>
-      </c>
-      <c r="AE11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AF11" t="s">
-        <v>111</v>
       </c>
       <c r="AG11">
         <v>106</v>
@@ -1892,13 +1895,10 @@
         <v>44459.54693287037</v>
       </c>
       <c r="AI11" t="s">
-        <v>114</v>
-      </c>
-      <c r="AJ11" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="AK11" t="s">
-        <v>126</v>
+        <v>96</v>
       </c>
     </row>
     <row r="12" spans="1:37">
@@ -1906,88 +1906,91 @@
         <v>229</v>
       </c>
       <c r="B12" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="C12" t="s">
-        <v>58</v>
-      </c>
-      <c r="D12" s="2">
+        <v>38</v>
+      </c>
+      <c r="D12" t="s">
+        <v>41</v>
+      </c>
+      <c r="E12" t="s">
+        <v>52</v>
+      </c>
+      <c r="F12" t="s">
+        <v>52</v>
+      </c>
+      <c r="G12" t="s">
+        <v>54</v>
+      </c>
+      <c r="H12" t="s">
+        <v>56</v>
+      </c>
+      <c r="I12" s="2">
+        <v>44459.5591087963</v>
+      </c>
+      <c r="J12" t="s">
+        <v>57</v>
+      </c>
+      <c r="L12" t="s">
+        <v>68</v>
+      </c>
+      <c r="M12" t="s">
+        <v>80</v>
+      </c>
+      <c r="N12" t="s">
+        <v>83</v>
+      </c>
+      <c r="O12" t="s">
+        <v>94</v>
+      </c>
+      <c r="P12" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>96</v>
+      </c>
+      <c r="R12" t="s">
+        <v>99</v>
+      </c>
+      <c r="S12" s="2">
+        <v>44456.52199074074</v>
+      </c>
+      <c r="T12" s="2">
+        <v>43479</v>
+      </c>
+      <c r="U12" t="s">
+        <v>110</v>
+      </c>
+      <c r="V12">
+        <v>1040</v>
+      </c>
+      <c r="W12">
+        <v>106</v>
+      </c>
+      <c r="X12" s="2">
         <v>44457.52199074074</v>
       </c>
-      <c r="F12">
+      <c r="Z12" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA12" s="2">
+        <v>44457.52199074074</v>
+      </c>
+      <c r="AB12">
+        <v>109</v>
+      </c>
+      <c r="AC12">
         <v>108</v>
       </c>
-      <c r="G12" t="s">
-        <v>61</v>
-      </c>
-      <c r="H12" t="s">
-        <v>62</v>
-      </c>
-      <c r="J12" s="2">
-        <v>44457.52199074074</v>
-      </c>
-      <c r="K12" s="2">
-        <v>44459.5591087963</v>
-      </c>
-      <c r="L12" t="s">
-        <v>63</v>
-      </c>
-      <c r="M12" t="s">
-        <v>65</v>
-      </c>
-      <c r="N12" s="2">
-        <v>44456.52199074074</v>
-      </c>
-      <c r="P12" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>79</v>
-      </c>
-      <c r="R12" t="s">
-        <v>79</v>
-      </c>
-      <c r="S12" t="s">
-        <v>81</v>
-      </c>
-      <c r="T12" t="s">
-        <v>93</v>
-      </c>
-      <c r="U12" t="s">
-        <v>93</v>
-      </c>
-      <c r="V12" t="s">
-        <v>96</v>
-      </c>
-      <c r="W12">
-        <v>1040</v>
-      </c>
-      <c r="X12" s="2">
-        <v>43479</v>
-      </c>
-      <c r="Y12">
-        <v>106</v>
-      </c>
-      <c r="Z12" t="s">
-        <v>63</v>
-      </c>
-      <c r="AA12" t="s">
-        <v>99</v>
-      </c>
-      <c r="AB12" t="s">
-        <v>46</v>
-      </c>
-      <c r="AC12">
-        <v>109</v>
-      </c>
       <c r="AD12" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="AE12" t="s">
-        <v>58</v>
+        <v>123</v>
       </c>
       <c r="AF12" t="s">
-        <v>112</v>
+        <v>80</v>
       </c>
       <c r="AG12">
         <v>106</v>
@@ -1996,13 +1999,10 @@
         <v>44459.54693287037</v>
       </c>
       <c r="AI12" t="s">
-        <v>114</v>
-      </c>
-      <c r="AJ12" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="AK12" t="s">
-        <v>127</v>
+        <v>96</v>
       </c>
     </row>
     <row r="13" spans="1:37">
@@ -2010,91 +2010,91 @@
         <v>238</v>
       </c>
       <c r="B13" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="C13" t="s">
-        <v>59</v>
-      </c>
-      <c r="D13" s="2">
+        <v>38</v>
+      </c>
+      <c r="D13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E13" t="s">
+        <v>53</v>
+      </c>
+      <c r="F13" t="s">
+        <v>53</v>
+      </c>
+      <c r="G13" t="s">
+        <v>54</v>
+      </c>
+      <c r="H13" t="s">
+        <v>56</v>
+      </c>
+      <c r="I13" s="2">
+        <v>44459.5591087963</v>
+      </c>
+      <c r="J13" t="s">
+        <v>57</v>
+      </c>
+      <c r="L13" t="s">
+        <v>69</v>
+      </c>
+      <c r="M13" t="s">
+        <v>81</v>
+      </c>
+      <c r="N13" t="s">
+        <v>82</v>
+      </c>
+      <c r="O13" t="s">
+        <v>95</v>
+      </c>
+      <c r="P13" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>96</v>
+      </c>
+      <c r="R13" t="s">
+        <v>99</v>
+      </c>
+      <c r="S13" s="2">
+        <v>44456.52199074074</v>
+      </c>
+      <c r="T13" s="2">
+        <v>43479</v>
+      </c>
+      <c r="U13" t="s">
+        <v>111</v>
+      </c>
+      <c r="V13">
+        <v>1041</v>
+      </c>
+      <c r="W13">
+        <v>106</v>
+      </c>
+      <c r="X13" s="2">
         <v>44457.52199074074</v>
       </c>
-      <c r="E13" t="s">
-        <v>60</v>
-      </c>
-      <c r="F13">
+      <c r="Z13" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA13" s="2">
+        <v>44457.52199074074</v>
+      </c>
+      <c r="AB13">
+        <v>109</v>
+      </c>
+      <c r="AC13">
         <v>108</v>
       </c>
-      <c r="G13" t="s">
-        <v>61</v>
-      </c>
-      <c r="H13" t="s">
-        <v>62</v>
-      </c>
-      <c r="J13" s="2">
-        <v>44457.52199074074</v>
-      </c>
-      <c r="K13" s="2">
-        <v>44459.5591087963</v>
-      </c>
-      <c r="L13" t="s">
-        <v>63</v>
-      </c>
-      <c r="M13" t="s">
-        <v>64</v>
-      </c>
-      <c r="N13" s="2">
-        <v>44456.52199074074</v>
-      </c>
-      <c r="P13" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>79</v>
-      </c>
-      <c r="R13" t="s">
-        <v>79</v>
-      </c>
-      <c r="S13" t="s">
+      <c r="AD13" t="s">
+        <v>97</v>
+      </c>
+      <c r="AE13" t="s">
+        <v>124</v>
+      </c>
+      <c r="AF13" t="s">
         <v>81</v>
-      </c>
-      <c r="T13" t="s">
-        <v>94</v>
-      </c>
-      <c r="U13" t="s">
-        <v>94</v>
-      </c>
-      <c r="V13" t="s">
-        <v>96</v>
-      </c>
-      <c r="W13">
-        <v>1041</v>
-      </c>
-      <c r="X13" s="2">
-        <v>43479</v>
-      </c>
-      <c r="Y13">
-        <v>106</v>
-      </c>
-      <c r="Z13" t="s">
-        <v>63</v>
-      </c>
-      <c r="AA13" t="s">
-        <v>99</v>
-      </c>
-      <c r="AB13" t="s">
-        <v>47</v>
-      </c>
-      <c r="AC13">
-        <v>109</v>
-      </c>
-      <c r="AD13" t="s">
-        <v>100</v>
-      </c>
-      <c r="AE13" t="s">
-        <v>59</v>
-      </c>
-      <c r="AF13" t="s">
-        <v>113</v>
       </c>
       <c r="AG13">
         <v>106</v>
@@ -2103,13 +2103,13 @@
         <v>44459.54693287037</v>
       </c>
       <c r="AI13" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="AJ13" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="AK13" t="s">
-        <v>128</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -2127,22 +2127,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>129</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2150,19 +2150,19 @@
         <v>24</v>
       </c>
       <c r="B2" t="s">
-        <v>66</v>
+        <v>113</v>
       </c>
       <c r="C2" t="s">
-        <v>117</v>
+        <v>84</v>
       </c>
       <c r="D2" t="s">
         <v>130</v>
       </c>
       <c r="E2" t="s">
-        <v>63</v>
+        <v>96</v>
       </c>
       <c r="G2" t="s">
-        <v>99</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2170,19 +2170,19 @@
         <v>25</v>
       </c>
       <c r="B3" t="s">
-        <v>66</v>
+        <v>113</v>
       </c>
       <c r="C3" t="s">
-        <v>117</v>
+        <v>84</v>
       </c>
       <c r="D3" t="s">
         <v>131</v>
       </c>
       <c r="E3" t="s">
-        <v>63</v>
+        <v>96</v>
       </c>
       <c r="G3" t="s">
-        <v>99</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -2190,19 +2190,19 @@
         <v>26</v>
       </c>
       <c r="B4" t="s">
-        <v>66</v>
+        <v>113</v>
       </c>
       <c r="C4" t="s">
-        <v>117</v>
+        <v>84</v>
       </c>
       <c r="D4" t="s">
         <v>132</v>
       </c>
       <c r="E4" t="s">
-        <v>63</v>
+        <v>96</v>
       </c>
       <c r="G4" t="s">
-        <v>99</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -2210,19 +2210,19 @@
         <v>27</v>
       </c>
       <c r="B5" t="s">
-        <v>66</v>
+        <v>113</v>
       </c>
       <c r="C5" t="s">
-        <v>117</v>
+        <v>84</v>
       </c>
       <c r="D5" t="s">
         <v>133</v>
       </c>
       <c r="E5" t="s">
-        <v>63</v>
+        <v>96</v>
       </c>
       <c r="G5" t="s">
-        <v>99</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -2230,22 +2230,22 @@
         <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>66</v>
+        <v>113</v>
       </c>
       <c r="C6" t="s">
-        <v>117</v>
+        <v>84</v>
       </c>
       <c r="D6" t="s">
         <v>134</v>
       </c>
       <c r="E6" t="s">
-        <v>63</v>
+        <v>96</v>
       </c>
       <c r="F6" t="s">
-        <v>62</v>
+        <v>36</v>
       </c>
       <c r="G6" t="s">
-        <v>99</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -2253,22 +2253,22 @@
         <v>29</v>
       </c>
       <c r="B7" t="s">
-        <v>66</v>
+        <v>113</v>
       </c>
       <c r="C7" t="s">
-        <v>117</v>
+        <v>84</v>
       </c>
       <c r="D7" t="s">
         <v>135</v>
       </c>
       <c r="E7" t="s">
-        <v>63</v>
+        <v>96</v>
       </c>
       <c r="F7" t="s">
-        <v>62</v>
+        <v>36</v>
       </c>
       <c r="G7" t="s">
-        <v>99</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -2276,22 +2276,22 @@
         <v>30</v>
       </c>
       <c r="B8" t="s">
-        <v>66</v>
+        <v>113</v>
       </c>
       <c r="C8" t="s">
-        <v>117</v>
+        <v>84</v>
       </c>
       <c r="D8" t="s">
         <v>136</v>
       </c>
       <c r="E8" t="s">
-        <v>63</v>
+        <v>96</v>
       </c>
       <c r="F8" t="s">
-        <v>62</v>
+        <v>36</v>
       </c>
       <c r="G8" t="s">
-        <v>99</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -2299,19 +2299,19 @@
         <v>31</v>
       </c>
       <c r="B9" t="s">
-        <v>66</v>
+        <v>113</v>
       </c>
       <c r="C9" t="s">
-        <v>117</v>
+        <v>84</v>
       </c>
       <c r="D9" t="s">
         <v>137</v>
       </c>
       <c r="E9" t="s">
-        <v>63</v>
+        <v>96</v>
       </c>
       <c r="G9" t="s">
-        <v>99</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -2319,19 +2319,19 @@
         <v>68</v>
       </c>
       <c r="B10" t="s">
-        <v>67</v>
+        <v>114</v>
       </c>
       <c r="C10" t="s">
-        <v>118</v>
+        <v>85</v>
       </c>
       <c r="D10" t="s">
         <v>130</v>
       </c>
       <c r="E10" t="s">
-        <v>63</v>
+        <v>96</v>
       </c>
       <c r="G10" t="s">
-        <v>99</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -2339,19 +2339,19 @@
         <v>69</v>
       </c>
       <c r="B11" t="s">
-        <v>67</v>
+        <v>114</v>
       </c>
       <c r="C11" t="s">
-        <v>118</v>
+        <v>85</v>
       </c>
       <c r="D11" t="s">
         <v>131</v>
       </c>
       <c r="E11" t="s">
-        <v>63</v>
+        <v>96</v>
       </c>
       <c r="G11" t="s">
-        <v>99</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -2359,19 +2359,19 @@
         <v>70</v>
       </c>
       <c r="B12" t="s">
-        <v>68</v>
+        <v>115</v>
       </c>
       <c r="C12" t="s">
-        <v>119</v>
+        <v>86</v>
       </c>
       <c r="D12" t="s">
         <v>130</v>
       </c>
       <c r="E12" t="s">
-        <v>63</v>
+        <v>96</v>
       </c>
       <c r="G12" t="s">
-        <v>99</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -2379,19 +2379,19 @@
         <v>71</v>
       </c>
       <c r="B13" t="s">
-        <v>69</v>
+        <v>116</v>
       </c>
       <c r="C13" t="s">
-        <v>120</v>
+        <v>87</v>
       </c>
       <c r="D13" t="s">
         <v>130</v>
       </c>
       <c r="E13" t="s">
-        <v>63</v>
+        <v>96</v>
       </c>
       <c r="G13" t="s">
-        <v>99</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -2399,19 +2399,19 @@
         <v>72</v>
       </c>
       <c r="B14" t="s">
-        <v>69</v>
+        <v>116</v>
       </c>
       <c r="C14" t="s">
-        <v>120</v>
+        <v>87</v>
       </c>
       <c r="D14" t="s">
         <v>131</v>
       </c>
       <c r="E14" t="s">
-        <v>63</v>
+        <v>96</v>
       </c>
       <c r="G14" t="s">
-        <v>99</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -2419,19 +2419,19 @@
         <v>73</v>
       </c>
       <c r="B15" t="s">
-        <v>69</v>
+        <v>116</v>
       </c>
       <c r="C15" t="s">
-        <v>120</v>
+        <v>87</v>
       </c>
       <c r="D15" t="s">
         <v>132</v>
       </c>
       <c r="E15" t="s">
-        <v>63</v>
+        <v>96</v>
       </c>
       <c r="G15" t="s">
-        <v>99</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -2439,19 +2439,19 @@
         <v>74</v>
       </c>
       <c r="B16" t="s">
-        <v>69</v>
+        <v>116</v>
       </c>
       <c r="C16" t="s">
-        <v>120</v>
+        <v>87</v>
       </c>
       <c r="D16" t="s">
         <v>133</v>
       </c>
       <c r="E16" t="s">
-        <v>63</v>
+        <v>96</v>
       </c>
       <c r="G16" t="s">
-        <v>99</v>
+        <v>54</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -2459,22 +2459,22 @@
         <v>75</v>
       </c>
       <c r="B17" t="s">
-        <v>69</v>
+        <v>116</v>
       </c>
       <c r="C17" t="s">
-        <v>120</v>
+        <v>87</v>
       </c>
       <c r="D17" t="s">
         <v>134</v>
       </c>
       <c r="E17" t="s">
-        <v>63</v>
+        <v>96</v>
       </c>
       <c r="F17" t="s">
-        <v>62</v>
+        <v>36</v>
       </c>
       <c r="G17" t="s">
-        <v>99</v>
+        <v>54</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -2482,22 +2482,22 @@
         <v>76</v>
       </c>
       <c r="B18" t="s">
-        <v>69</v>
+        <v>116</v>
       </c>
       <c r="C18" t="s">
-        <v>120</v>
+        <v>87</v>
       </c>
       <c r="D18" t="s">
         <v>135</v>
       </c>
       <c r="E18" t="s">
-        <v>63</v>
+        <v>96</v>
       </c>
       <c r="F18" t="s">
-        <v>62</v>
+        <v>36</v>
       </c>
       <c r="G18" t="s">
-        <v>99</v>
+        <v>54</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -2505,22 +2505,22 @@
         <v>77</v>
       </c>
       <c r="B19" t="s">
-        <v>69</v>
+        <v>116</v>
       </c>
       <c r="C19" t="s">
-        <v>120</v>
+        <v>87</v>
       </c>
       <c r="D19" t="s">
         <v>136</v>
       </c>
       <c r="E19" t="s">
-        <v>63</v>
+        <v>96</v>
       </c>
       <c r="F19" t="s">
-        <v>62</v>
+        <v>36</v>
       </c>
       <c r="G19" t="s">
-        <v>99</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -2528,19 +2528,19 @@
         <v>78</v>
       </c>
       <c r="B20" t="s">
-        <v>69</v>
+        <v>116</v>
       </c>
       <c r="C20" t="s">
-        <v>120</v>
+        <v>87</v>
       </c>
       <c r="D20" t="s">
         <v>137</v>
       </c>
       <c r="E20" t="s">
-        <v>63</v>
+        <v>96</v>
       </c>
       <c r="G20" t="s">
-        <v>99</v>
+        <v>54</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -2548,22 +2548,22 @@
         <v>79</v>
       </c>
       <c r="B21" t="s">
-        <v>69</v>
+        <v>116</v>
       </c>
       <c r="C21" t="s">
-        <v>120</v>
+        <v>87</v>
       </c>
       <c r="D21" t="s">
         <v>138</v>
       </c>
       <c r="E21" t="s">
-        <v>63</v>
+        <v>96</v>
       </c>
       <c r="F21" t="s">
-        <v>62</v>
+        <v>36</v>
       </c>
       <c r="G21" t="s">
-        <v>99</v>
+        <v>54</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -2571,19 +2571,19 @@
         <v>80</v>
       </c>
       <c r="B22" t="s">
-        <v>70</v>
+        <v>117</v>
       </c>
       <c r="C22" t="s">
-        <v>121</v>
+        <v>88</v>
       </c>
       <c r="D22" t="s">
         <v>130</v>
       </c>
       <c r="E22" t="s">
-        <v>63</v>
+        <v>96</v>
       </c>
       <c r="G22" t="s">
-        <v>99</v>
+        <v>54</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -2591,19 +2591,19 @@
         <v>81</v>
       </c>
       <c r="B23" t="s">
-        <v>70</v>
+        <v>117</v>
       </c>
       <c r="C23" t="s">
-        <v>121</v>
+        <v>88</v>
       </c>
       <c r="D23" t="s">
         <v>131</v>
       </c>
       <c r="E23" t="s">
-        <v>63</v>
+        <v>96</v>
       </c>
       <c r="G23" t="s">
-        <v>99</v>
+        <v>54</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -2611,19 +2611,19 @@
         <v>82</v>
       </c>
       <c r="B24" t="s">
-        <v>70</v>
+        <v>117</v>
       </c>
       <c r="C24" t="s">
-        <v>121</v>
+        <v>88</v>
       </c>
       <c r="D24" t="s">
         <v>132</v>
       </c>
       <c r="E24" t="s">
-        <v>63</v>
+        <v>96</v>
       </c>
       <c r="G24" t="s">
-        <v>99</v>
+        <v>54</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -2631,19 +2631,19 @@
         <v>83</v>
       </c>
       <c r="B25" t="s">
-        <v>70</v>
+        <v>117</v>
       </c>
       <c r="C25" t="s">
-        <v>121</v>
+        <v>88</v>
       </c>
       <c r="D25" t="s">
         <v>133</v>
       </c>
       <c r="E25" t="s">
-        <v>63</v>
+        <v>96</v>
       </c>
       <c r="G25" t="s">
-        <v>99</v>
+        <v>54</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -2651,22 +2651,22 @@
         <v>84</v>
       </c>
       <c r="B26" t="s">
-        <v>70</v>
+        <v>117</v>
       </c>
       <c r="C26" t="s">
-        <v>121</v>
+        <v>88</v>
       </c>
       <c r="D26" t="s">
         <v>134</v>
       </c>
       <c r="E26" t="s">
-        <v>63</v>
+        <v>96</v>
       </c>
       <c r="F26" t="s">
-        <v>62</v>
+        <v>36</v>
       </c>
       <c r="G26" t="s">
-        <v>99</v>
+        <v>54</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -2674,22 +2674,22 @@
         <v>85</v>
       </c>
       <c r="B27" t="s">
-        <v>70</v>
+        <v>117</v>
       </c>
       <c r="C27" t="s">
-        <v>121</v>
+        <v>88</v>
       </c>
       <c r="D27" t="s">
         <v>135</v>
       </c>
       <c r="E27" t="s">
-        <v>63</v>
+        <v>96</v>
       </c>
       <c r="F27" t="s">
-        <v>62</v>
+        <v>36</v>
       </c>
       <c r="G27" t="s">
-        <v>99</v>
+        <v>54</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -2697,22 +2697,22 @@
         <v>86</v>
       </c>
       <c r="B28" t="s">
-        <v>70</v>
+        <v>117</v>
       </c>
       <c r="C28" t="s">
-        <v>121</v>
+        <v>88</v>
       </c>
       <c r="D28" t="s">
         <v>136</v>
       </c>
       <c r="E28" t="s">
-        <v>63</v>
+        <v>96</v>
       </c>
       <c r="F28" t="s">
-        <v>62</v>
+        <v>36</v>
       </c>
       <c r="G28" t="s">
-        <v>99</v>
+        <v>54</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -2720,19 +2720,19 @@
         <v>87</v>
       </c>
       <c r="B29" t="s">
-        <v>70</v>
+        <v>117</v>
       </c>
       <c r="C29" t="s">
-        <v>121</v>
+        <v>88</v>
       </c>
       <c r="D29" t="s">
         <v>137</v>
       </c>
       <c r="E29" t="s">
-        <v>63</v>
+        <v>96</v>
       </c>
       <c r="G29" t="s">
-        <v>99</v>
+        <v>54</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -2740,22 +2740,22 @@
         <v>88</v>
       </c>
       <c r="B30" t="s">
-        <v>70</v>
+        <v>117</v>
       </c>
       <c r="C30" t="s">
-        <v>121</v>
+        <v>88</v>
       </c>
       <c r="D30" t="s">
         <v>138</v>
       </c>
       <c r="E30" t="s">
-        <v>63</v>
+        <v>96</v>
       </c>
       <c r="F30" t="s">
-        <v>62</v>
+        <v>36</v>
       </c>
       <c r="G30" t="s">
-        <v>99</v>
+        <v>54</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -2763,19 +2763,19 @@
         <v>89</v>
       </c>
       <c r="B31" t="s">
-        <v>71</v>
+        <v>118</v>
       </c>
       <c r="C31" t="s">
-        <v>122</v>
+        <v>89</v>
       </c>
       <c r="D31" t="s">
         <v>130</v>
       </c>
       <c r="E31" t="s">
-        <v>63</v>
+        <v>96</v>
       </c>
       <c r="G31" t="s">
-        <v>99</v>
+        <v>54</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -2783,19 +2783,19 @@
         <v>90</v>
       </c>
       <c r="B32" t="s">
-        <v>71</v>
+        <v>118</v>
       </c>
       <c r="C32" t="s">
-        <v>122</v>
+        <v>89</v>
       </c>
       <c r="D32" t="s">
         <v>131</v>
       </c>
       <c r="E32" t="s">
-        <v>63</v>
+        <v>96</v>
       </c>
       <c r="G32" t="s">
-        <v>99</v>
+        <v>54</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -2803,19 +2803,19 @@
         <v>91</v>
       </c>
       <c r="B33" t="s">
-        <v>71</v>
+        <v>118</v>
       </c>
       <c r="C33" t="s">
-        <v>122</v>
+        <v>89</v>
       </c>
       <c r="D33" t="s">
         <v>132</v>
       </c>
       <c r="E33" t="s">
-        <v>63</v>
+        <v>96</v>
       </c>
       <c r="G33" t="s">
-        <v>99</v>
+        <v>54</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -2823,19 +2823,19 @@
         <v>92</v>
       </c>
       <c r="B34" t="s">
-        <v>71</v>
+        <v>118</v>
       </c>
       <c r="C34" t="s">
-        <v>122</v>
+        <v>89</v>
       </c>
       <c r="D34" t="s">
         <v>133</v>
       </c>
       <c r="E34" t="s">
-        <v>63</v>
+        <v>96</v>
       </c>
       <c r="G34" t="s">
-        <v>99</v>
+        <v>54</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -2843,22 +2843,22 @@
         <v>93</v>
       </c>
       <c r="B35" t="s">
-        <v>71</v>
+        <v>118</v>
       </c>
       <c r="C35" t="s">
-        <v>122</v>
+        <v>89</v>
       </c>
       <c r="D35" t="s">
         <v>134</v>
       </c>
       <c r="E35" t="s">
-        <v>63</v>
+        <v>96</v>
       </c>
       <c r="F35" t="s">
-        <v>62</v>
+        <v>36</v>
       </c>
       <c r="G35" t="s">
-        <v>99</v>
+        <v>54</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -2866,22 +2866,22 @@
         <v>94</v>
       </c>
       <c r="B36" t="s">
-        <v>71</v>
+        <v>118</v>
       </c>
       <c r="C36" t="s">
-        <v>122</v>
+        <v>89</v>
       </c>
       <c r="D36" t="s">
         <v>135</v>
       </c>
       <c r="E36" t="s">
-        <v>63</v>
+        <v>96</v>
       </c>
       <c r="F36" t="s">
-        <v>62</v>
+        <v>36</v>
       </c>
       <c r="G36" t="s">
-        <v>99</v>
+        <v>54</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -2889,22 +2889,22 @@
         <v>95</v>
       </c>
       <c r="B37" t="s">
-        <v>71</v>
+        <v>118</v>
       </c>
       <c r="C37" t="s">
-        <v>122</v>
+        <v>89</v>
       </c>
       <c r="D37" t="s">
         <v>136</v>
       </c>
       <c r="E37" t="s">
-        <v>63</v>
+        <v>96</v>
       </c>
       <c r="F37" t="s">
-        <v>62</v>
+        <v>36</v>
       </c>
       <c r="G37" t="s">
-        <v>99</v>
+        <v>54</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -2912,19 +2912,19 @@
         <v>96</v>
       </c>
       <c r="B38" t="s">
-        <v>71</v>
+        <v>118</v>
       </c>
       <c r="C38" t="s">
-        <v>122</v>
+        <v>89</v>
       </c>
       <c r="D38" t="s">
         <v>137</v>
       </c>
       <c r="E38" t="s">
-        <v>63</v>
+        <v>96</v>
       </c>
       <c r="G38" t="s">
-        <v>99</v>
+        <v>54</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -2932,22 +2932,22 @@
         <v>97</v>
       </c>
       <c r="B39" t="s">
-        <v>71</v>
+        <v>118</v>
       </c>
       <c r="C39" t="s">
-        <v>122</v>
+        <v>89</v>
       </c>
       <c r="D39" t="s">
         <v>138</v>
       </c>
       <c r="E39" t="s">
-        <v>63</v>
+        <v>96</v>
       </c>
       <c r="F39" t="s">
-        <v>62</v>
+        <v>36</v>
       </c>
       <c r="G39" t="s">
-        <v>99</v>
+        <v>54</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -2955,19 +2955,19 @@
         <v>213</v>
       </c>
       <c r="B40" t="s">
-        <v>72</v>
+        <v>119</v>
       </c>
       <c r="C40" t="s">
-        <v>123</v>
+        <v>90</v>
       </c>
       <c r="D40" t="s">
         <v>130</v>
       </c>
       <c r="E40" t="s">
-        <v>63</v>
+        <v>96</v>
       </c>
       <c r="G40" t="s">
-        <v>99</v>
+        <v>54</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -2975,19 +2975,19 @@
         <v>214</v>
       </c>
       <c r="B41" t="s">
-        <v>72</v>
+        <v>119</v>
       </c>
       <c r="C41" t="s">
-        <v>123</v>
+        <v>90</v>
       </c>
       <c r="D41" t="s">
         <v>131</v>
       </c>
       <c r="E41" t="s">
-        <v>63</v>
+        <v>96</v>
       </c>
       <c r="G41" t="s">
-        <v>99</v>
+        <v>54</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -2995,19 +2995,19 @@
         <v>215</v>
       </c>
       <c r="B42" t="s">
-        <v>73</v>
+        <v>120</v>
       </c>
       <c r="C42" t="s">
-        <v>124</v>
+        <v>91</v>
       </c>
       <c r="D42" t="s">
         <v>130</v>
       </c>
       <c r="E42" t="s">
-        <v>63</v>
+        <v>96</v>
       </c>
       <c r="G42" t="s">
-        <v>99</v>
+        <v>54</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -3015,19 +3015,19 @@
         <v>216</v>
       </c>
       <c r="B43" t="s">
-        <v>73</v>
+        <v>120</v>
       </c>
       <c r="C43" t="s">
-        <v>124</v>
+        <v>91</v>
       </c>
       <c r="D43" t="s">
         <v>131</v>
       </c>
       <c r="E43" t="s">
-        <v>63</v>
+        <v>96</v>
       </c>
       <c r="G43" t="s">
-        <v>99</v>
+        <v>54</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -3035,19 +3035,19 @@
         <v>217</v>
       </c>
       <c r="B44" t="s">
-        <v>74</v>
+        <v>121</v>
       </c>
       <c r="C44" t="s">
-        <v>125</v>
+        <v>92</v>
       </c>
       <c r="D44" t="s">
         <v>130</v>
       </c>
       <c r="E44" t="s">
-        <v>63</v>
+        <v>96</v>
       </c>
       <c r="G44" t="s">
-        <v>99</v>
+        <v>54</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -3055,19 +3055,19 @@
         <v>218</v>
       </c>
       <c r="B45" t="s">
-        <v>74</v>
+        <v>121</v>
       </c>
       <c r="C45" t="s">
-        <v>125</v>
+        <v>92</v>
       </c>
       <c r="D45" t="s">
         <v>131</v>
       </c>
       <c r="E45" t="s">
-        <v>63</v>
+        <v>96</v>
       </c>
       <c r="G45" t="s">
-        <v>99</v>
+        <v>54</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -3075,19 +3075,19 @@
         <v>219</v>
       </c>
       <c r="B46" t="s">
-        <v>75</v>
+        <v>122</v>
       </c>
       <c r="C46" t="s">
-        <v>126</v>
+        <v>93</v>
       </c>
       <c r="D46" t="s">
         <v>130</v>
       </c>
       <c r="E46" t="s">
-        <v>63</v>
+        <v>96</v>
       </c>
       <c r="G46" t="s">
-        <v>99</v>
+        <v>54</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -3095,19 +3095,19 @@
         <v>220</v>
       </c>
       <c r="B47" t="s">
-        <v>75</v>
+        <v>122</v>
       </c>
       <c r="C47" t="s">
-        <v>126</v>
+        <v>93</v>
       </c>
       <c r="D47" t="s">
         <v>131</v>
       </c>
       <c r="E47" t="s">
-        <v>63</v>
+        <v>96</v>
       </c>
       <c r="G47" t="s">
-        <v>99</v>
+        <v>54</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -3115,19 +3115,19 @@
         <v>221</v>
       </c>
       <c r="B48" t="s">
-        <v>76</v>
+        <v>123</v>
       </c>
       <c r="C48" t="s">
-        <v>127</v>
+        <v>94</v>
       </c>
       <c r="D48" t="s">
         <v>130</v>
       </c>
       <c r="E48" t="s">
-        <v>63</v>
+        <v>96</v>
       </c>
       <c r="G48" t="s">
-        <v>99</v>
+        <v>54</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -3135,19 +3135,19 @@
         <v>222</v>
       </c>
       <c r="B49" t="s">
-        <v>76</v>
+        <v>123</v>
       </c>
       <c r="C49" t="s">
-        <v>127</v>
+        <v>94</v>
       </c>
       <c r="D49" t="s">
         <v>131</v>
       </c>
       <c r="E49" t="s">
-        <v>63</v>
+        <v>96</v>
       </c>
       <c r="G49" t="s">
-        <v>99</v>
+        <v>54</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -3155,19 +3155,19 @@
         <v>223</v>
       </c>
       <c r="B50" t="s">
-        <v>76</v>
+        <v>123</v>
       </c>
       <c r="C50" t="s">
-        <v>127</v>
+        <v>94</v>
       </c>
       <c r="D50" t="s">
         <v>132</v>
       </c>
       <c r="E50" t="s">
-        <v>63</v>
+        <v>96</v>
       </c>
       <c r="G50" t="s">
-        <v>99</v>
+        <v>54</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -3175,19 +3175,19 @@
         <v>224</v>
       </c>
       <c r="B51" t="s">
-        <v>76</v>
+        <v>123</v>
       </c>
       <c r="C51" t="s">
-        <v>127</v>
+        <v>94</v>
       </c>
       <c r="D51" t="s">
         <v>133</v>
       </c>
       <c r="E51" t="s">
-        <v>63</v>
+        <v>96</v>
       </c>
       <c r="G51" t="s">
-        <v>99</v>
+        <v>54</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -3195,22 +3195,22 @@
         <v>225</v>
       </c>
       <c r="B52" t="s">
-        <v>76</v>
+        <v>123</v>
       </c>
       <c r="C52" t="s">
-        <v>127</v>
+        <v>94</v>
       </c>
       <c r="D52" t="s">
         <v>134</v>
       </c>
       <c r="E52" t="s">
-        <v>63</v>
+        <v>96</v>
       </c>
       <c r="F52" t="s">
-        <v>62</v>
+        <v>36</v>
       </c>
       <c r="G52" t="s">
-        <v>99</v>
+        <v>54</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -3218,22 +3218,22 @@
         <v>226</v>
       </c>
       <c r="B53" t="s">
-        <v>76</v>
+        <v>123</v>
       </c>
       <c r="C53" t="s">
-        <v>127</v>
+        <v>94</v>
       </c>
       <c r="D53" t="s">
         <v>135</v>
       </c>
       <c r="E53" t="s">
-        <v>63</v>
+        <v>96</v>
       </c>
       <c r="F53" t="s">
-        <v>62</v>
+        <v>36</v>
       </c>
       <c r="G53" t="s">
-        <v>99</v>
+        <v>54</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -3241,22 +3241,22 @@
         <v>227</v>
       </c>
       <c r="B54" t="s">
-        <v>76</v>
+        <v>123</v>
       </c>
       <c r="C54" t="s">
-        <v>127</v>
+        <v>94</v>
       </c>
       <c r="D54" t="s">
         <v>136</v>
       </c>
       <c r="E54" t="s">
-        <v>63</v>
+        <v>96</v>
       </c>
       <c r="F54" t="s">
-        <v>62</v>
+        <v>36</v>
       </c>
       <c r="G54" t="s">
-        <v>99</v>
+        <v>54</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -3264,19 +3264,19 @@
         <v>228</v>
       </c>
       <c r="B55" t="s">
-        <v>76</v>
+        <v>123</v>
       </c>
       <c r="C55" t="s">
-        <v>127</v>
+        <v>94</v>
       </c>
       <c r="D55" t="s">
         <v>137</v>
       </c>
       <c r="E55" t="s">
-        <v>63</v>
+        <v>96</v>
       </c>
       <c r="G55" t="s">
-        <v>99</v>
+        <v>54</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -3284,22 +3284,22 @@
         <v>229</v>
       </c>
       <c r="B56" t="s">
-        <v>76</v>
+        <v>123</v>
       </c>
       <c r="C56" t="s">
-        <v>127</v>
+        <v>94</v>
       </c>
       <c r="D56" t="s">
         <v>138</v>
       </c>
       <c r="E56" t="s">
-        <v>63</v>
+        <v>96</v>
       </c>
       <c r="F56" t="s">
-        <v>62</v>
+        <v>36</v>
       </c>
       <c r="G56" t="s">
-        <v>99</v>
+        <v>54</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -3307,19 +3307,19 @@
         <v>230</v>
       </c>
       <c r="B57" t="s">
-        <v>77</v>
+        <v>124</v>
       </c>
       <c r="C57" t="s">
-        <v>128</v>
+        <v>95</v>
       </c>
       <c r="D57" t="s">
         <v>130</v>
       </c>
       <c r="E57" t="s">
-        <v>63</v>
+        <v>96</v>
       </c>
       <c r="G57" t="s">
-        <v>99</v>
+        <v>54</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -3327,19 +3327,19 @@
         <v>231</v>
       </c>
       <c r="B58" t="s">
-        <v>77</v>
+        <v>124</v>
       </c>
       <c r="C58" t="s">
-        <v>128</v>
+        <v>95</v>
       </c>
       <c r="D58" t="s">
         <v>131</v>
       </c>
       <c r="E58" t="s">
-        <v>63</v>
+        <v>96</v>
       </c>
       <c r="G58" t="s">
-        <v>99</v>
+        <v>54</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -3347,19 +3347,19 @@
         <v>232</v>
       </c>
       <c r="B59" t="s">
-        <v>77</v>
+        <v>124</v>
       </c>
       <c r="C59" t="s">
-        <v>128</v>
+        <v>95</v>
       </c>
       <c r="D59" t="s">
         <v>132</v>
       </c>
       <c r="E59" t="s">
-        <v>63</v>
+        <v>96</v>
       </c>
       <c r="G59" t="s">
-        <v>99</v>
+        <v>54</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -3367,19 +3367,19 @@
         <v>233</v>
       </c>
       <c r="B60" t="s">
-        <v>77</v>
+        <v>124</v>
       </c>
       <c r="C60" t="s">
-        <v>128</v>
+        <v>95</v>
       </c>
       <c r="D60" t="s">
         <v>133</v>
       </c>
       <c r="E60" t="s">
-        <v>63</v>
+        <v>96</v>
       </c>
       <c r="G60" t="s">
-        <v>99</v>
+        <v>54</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -3387,22 +3387,22 @@
         <v>234</v>
       </c>
       <c r="B61" t="s">
-        <v>77</v>
+        <v>124</v>
       </c>
       <c r="C61" t="s">
-        <v>128</v>
+        <v>95</v>
       </c>
       <c r="D61" t="s">
         <v>134</v>
       </c>
       <c r="E61" t="s">
-        <v>63</v>
+        <v>96</v>
       </c>
       <c r="F61" t="s">
-        <v>62</v>
+        <v>36</v>
       </c>
       <c r="G61" t="s">
-        <v>99</v>
+        <v>54</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -3410,22 +3410,22 @@
         <v>235</v>
       </c>
       <c r="B62" t="s">
-        <v>77</v>
+        <v>124</v>
       </c>
       <c r="C62" t="s">
-        <v>128</v>
+        <v>95</v>
       </c>
       <c r="D62" t="s">
         <v>135</v>
       </c>
       <c r="E62" t="s">
-        <v>63</v>
+        <v>96</v>
       </c>
       <c r="F62" t="s">
-        <v>62</v>
+        <v>36</v>
       </c>
       <c r="G62" t="s">
-        <v>99</v>
+        <v>54</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -3433,22 +3433,22 @@
         <v>236</v>
       </c>
       <c r="B63" t="s">
-        <v>77</v>
+        <v>124</v>
       </c>
       <c r="C63" t="s">
-        <v>128</v>
+        <v>95</v>
       </c>
       <c r="D63" t="s">
         <v>136</v>
       </c>
       <c r="E63" t="s">
-        <v>63</v>
+        <v>96</v>
       </c>
       <c r="F63" t="s">
-        <v>62</v>
+        <v>36</v>
       </c>
       <c r="G63" t="s">
-        <v>99</v>
+        <v>54</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -3456,19 +3456,19 @@
         <v>237</v>
       </c>
       <c r="B64" t="s">
-        <v>77</v>
+        <v>124</v>
       </c>
       <c r="C64" t="s">
-        <v>128</v>
+        <v>95</v>
       </c>
       <c r="D64" t="s">
         <v>137</v>
       </c>
       <c r="E64" t="s">
-        <v>63</v>
+        <v>96</v>
       </c>
       <c r="G64" t="s">
-        <v>99</v>
+        <v>54</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -3476,22 +3476,22 @@
         <v>238</v>
       </c>
       <c r="B65" t="s">
-        <v>77</v>
+        <v>124</v>
       </c>
       <c r="C65" t="s">
-        <v>128</v>
+        <v>95</v>
       </c>
       <c r="D65" t="s">
         <v>138</v>
       </c>
       <c r="E65" t="s">
-        <v>63</v>
+        <v>96</v>
       </c>
       <c r="F65" t="s">
-        <v>62</v>
+        <v>36</v>
       </c>
       <c r="G65" t="s">
-        <v>99</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
